--- a/MyProgram/PM管理/项目管理经验总结.xlsx
+++ b/MyProgram/PM管理/项目管理经验总结.xlsx
@@ -179,18 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成果产出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投标演讲PPT、工作准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,6 +268,18 @@
   </si>
   <si>
     <t>所有工作完成之后，项目进入运维阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,6 +393,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -401,9 +404,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2518,46 +2518,46 @@
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2584,37 +2584,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2630,7 +2630,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -2638,8 +2638,7 @@
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="90.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2651,13 +2650,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2666,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2675,7 +2674,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,15 +2682,15 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2699,7 +2698,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2707,7 +2706,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2715,7 +2714,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2723,7 +2722,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2731,7 +2730,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2739,7 +2738,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2747,7 +2746,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2755,7 +2754,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2763,7 +2762,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2771,7 +2770,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2779,7 +2778,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -2787,7 +2786,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -2795,7 +2794,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -2803,7 +2802,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -2811,7 +2810,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -2819,7 +2818,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -2827,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -2835,7 +2834,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
@@ -2843,12 +2842,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MyProgram/PM管理/项目管理经验总结.xlsx
+++ b/MyProgram/PM管理/项目管理经验总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理是什么" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>项目是什么？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,214 @@
   </si>
   <si>
     <t>作为一个项目经理，主要指责有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个项目经理你应该如何去管理一个团队，如何管理好一个团队？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目评估、成本预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计、评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计、评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码、单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力测试、案例设计与评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准生产测试、案例设计与评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户测试、案例设计与评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试、案例设计与评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产演练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产复核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式投产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产试运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的项目开发周期包含？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户测试环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力测试环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标演讲PPT、工作准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估项目难度、成本、周期、风险点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队组建、技术选型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据项目分析情况，招兵买马、确定人员架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员进来后开始需求收集与分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始搭建开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计文档以及数据设计文档开始、多轮评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计文档开始，明确技术详细信息、可直接落地、评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试环境要开始搭建了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码周期最短、团队成员开发完成最好单元测试，保证模块代码无明显问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试属于系统联通测试，保障各个模块能正常联动，数据流程畅通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户测试一般非团队成员执行，属于业务人员或者其他外部人员测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建用户测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实的使用人员测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟生成环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟未来某几年的访问指标和点击指标设计tps，设计最大并发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产准备工作开始筹划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程详细可独立执行的操作手册、保证投产高效顺利的执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产演练必不可少，至少三次，每一次发现问题及时纠正，同时修正操作手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核投产准备工作，复核投产操作手册，多人复核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式投产，保证所有相关人员到场，突发情况及时解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产试运行24小时有人监控，保障出现问题及时响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有工作完成之后，项目进入运维阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,11 +268,7 @@
 4、需求分析、概要设计、详细设计、代码开发组织、测试、设计评审、投产以及各阶段文档产出的管理等
 5、计划管控、需求以及需求变更管控、质量管控、风险管控、人员管控、团队管理
 6、绩效管理、考勤管理、培训管理、项目组内外沟通的管理等
-7、对上汇报、对下传达、会议组织、团队活动等管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个项目经理你应该如何去管理一个团队，如何管理好一个团队？</t>
+7、对上汇报、对下传达、会议组织、团建活动等管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,211 +279,64 @@
 5、除了钱，让团队成员有晋升和成长空间，定期的技术培训必不可少
 6、察言观色，了解团队成员当前状况，解决其苦难之所在
 7、重视每一个成员，定期沟通，发现团队问题，及时改善
-8、让每位成员都有归属感，家一样的感觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目评估、成本预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概要设计、评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细设计、评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码、单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力测试、案例设计与评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准生产测试、案例设计与评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户测试、案例设计与评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试、案例设计与评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产操作手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产演练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产复核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式投产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产试运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完整的项目开发周期包含？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户测试环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力测试环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标演讲PPT、工作准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估项目难度、成本、周期、风险点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队组建、技术选型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据项目分析情况，招兵买马、确定人员架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员进来后开始需求收集与分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始搭建开发环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概要设计文档以及数据设计文档开始、多轮评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细设计文档开始，明确技术详细信息、可直接落地、评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试环境要开始搭建了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码周期最短、团队成员开发完成最好单元测试，保证模块代码无明显问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成测试属于系统联通测试，保障各个模块能正常联动，数据流程畅通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户测试一般非团队成员执行，属于业务人员或者其他外部人员测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建用户测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实的使用人员测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟生成环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟未来某几年的访问指标和点击指标设计tps，设计最大并发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产准备工作开始筹划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编程详细可独立执行的操作手册、保证投产高效顺利的执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产演练必不可少，至少三次，每一次发现问题及时纠正，同时修正操作手册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复核投产准备工作，复核投产操作手册，多人复核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式投产，保证所有相关人员到场，突发情况及时解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产试运行24小时有人监控，保障出现问题及时响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有工作完成之后，项目进入运维阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标文档编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出</t>
+8、让每位成员都有归属感，家一样的感觉
+这样才能充分发挥团队效应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9人团队分工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个运维兼职配置管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个主程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个项目经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时主开发与联机互备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个数据-ETL人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个联机-会Java+业务分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器管理、环境搭建、运维管理等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求、需求变更管理；文档产出、团队间的沟通协调等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14年10月1号总行投产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15年10月1号全行投产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年7月我走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-11到15-3月开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-3到16-7月项目管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,8 +507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2152650" y="3638549"/>
-          <a:ext cx="8458200" cy="6231394"/>
+          <a:off x="2657475" y="3638549"/>
+          <a:ext cx="12553950" cy="6231394"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="6106795" cy="4474314"/>
         </a:xfrm>
@@ -2458,7 +2515,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2576,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2573,7 +2630,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -2585,10 +2642,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2629,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72503B2-BDA3-4AF7-A810-85B1A8B9C07C}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -2644,205 +2701,205 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2854,28 +2911,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898268D5-D142-4F40-8F11-7454DE4D37A8}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="32.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MyProgram/PM管理/项目管理经验总结.xlsx
+++ b/MyProgram/PM管理/项目管理经验总结.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,16 +373,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -442,11 +455,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -462,6 +516,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -508,7 +567,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2657475" y="3638549"/>
-          <a:ext cx="12553950" cy="6231394"/>
+          <a:ext cx="12649200" cy="6231394"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="6106795" cy="4474314"/>
         </a:xfrm>
@@ -2515,7 +2574,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -2687,7 +2746,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -2911,17 +2970,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898268D5-D142-4F40-8F11-7454DE4D37A8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2929,7 +2988,7 @@
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2937,7 +2996,7 @@
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2945,7 +3004,7 @@
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2956,7 +3015,7 @@
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2964,7 +3023,7 @@
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2972,14 +3031,51 @@
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
